--- a/wave_function_collapse/bitmaps/tile_1.xlsx
+++ b/wave_function_collapse/bitmaps/tile_1.xlsx
@@ -205,7 +205,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
+      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wave_function_collapse/bitmaps/tile_1.xlsx
+++ b/wave_function_collapse/bitmaps/tile_1.xlsx
@@ -205,12 +205,12 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
+      <selection pane="topLeft" activeCell="AC11" activeCellId="0" sqref="AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="1" style="1" width="5.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="1" style="1" width="5.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
